--- a/GL250_TestData_RevalueBalances_21B.xlsx
+++ b/GL250_TestData_RevalueBalances_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL TestData Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CEDF84-446F-4F34-99C8-D428FB05E672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BE68CB-F813-48C6-8716-5BD2E21BEA51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>URL</t>
   </si>
@@ -122,21 +122,9 @@
     <t>SavedSearch</t>
   </si>
   <si>
-    <t>AUTTEST39202022S021</t>
-  </si>
-  <si>
-    <t>101.0000.741001.000000.0000.000.0000</t>
-  </si>
-  <si>
-    <t>101.0000.741003.000000.0000.000.0000</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>Intangibles - Additions</t>
-  </si>
-  <si>
     <t>All Journals</t>
   </si>
   <si>
@@ -189,6 +177,15 @@
   </si>
   <si>
     <t>CAD - Canadian Dollar</t>
+  </si>
+  <si>
+    <t>AUTOTEST</t>
+  </si>
+  <si>
+    <t>220.31863.204021.10001.001.00000.000</t>
+  </si>
+  <si>
+    <t>220.31863.204021.10001.000.00000.000</t>
   </si>
 </sst>
 </file>
@@ -600,7 +597,7 @@
   <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,28 +631,28 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>3</v>
@@ -741,52 +738,52 @@
         <v>120</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="W2" s="2">
-        <v>223101</v>
+        <v>204021</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
@@ -814,18 +811,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/GL250_TestData_RevalueBalances_21B.xlsx
+++ b/GL250_TestData_RevalueBalances_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL TestData Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BE68CB-F813-48C6-8716-5BD2E21BEA51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6AABFB-634E-44B5-892E-2288BC7A7E7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,49 +21,80 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Raj Divekar</author>
-  </authors>
-  <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Raj Divekar:
-unique field. Provide value with proper naming convention</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Raj Divekar:
-This should be same as Name
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ChartOfAccounts</t>
+  </si>
+  <si>
+    <t>ConversionRate</t>
+  </si>
+  <si>
+    <t>UnrealisedGainAccount</t>
+  </si>
+  <si>
+    <t>UnrealisedLossAccount</t>
+  </si>
+  <si>
+    <t>PostAutomatically</t>
+  </si>
+  <si>
+    <t>Ledger</t>
+  </si>
+  <si>
+    <t>Revaluation</t>
+  </si>
+  <si>
+    <t>AccountingPrd</t>
+  </si>
+  <si>
+    <t>Description1</t>
+  </si>
+  <si>
+    <t>Description2</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>NaturalAccount</t>
+  </si>
+  <si>
+    <t>SavedSearch</t>
+  </si>
+  <si>
+    <t>LowWait</t>
+  </si>
+  <si>
+    <t>MediumWait</t>
+  </si>
+  <si>
+    <t>HighWait</t>
+  </si>
+  <si>
+    <t>HighestWait</t>
+  </si>
+  <si>
+    <t>LowExplicitWait</t>
+  </si>
+  <si>
+    <t>MediumExplicitWait</t>
+  </si>
+  <si>
+    <t>LongExplicitWait</t>
+  </si>
+  <si>
+    <t>HighestExplicitWait</t>
+  </si>
   <si>
     <t>URL</t>
   </si>
@@ -74,60 +105,60 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ChartOfAccounts</t>
-  </si>
-  <si>
-    <t>ConversionRate</t>
-  </si>
-  <si>
-    <t>UnrealisedGainAccount</t>
-  </si>
-  <si>
-    <t>UnrealisedLossAccount</t>
-  </si>
-  <si>
-    <t>PostAutomatically</t>
-  </si>
-  <si>
-    <t>Ledger</t>
-  </si>
-  <si>
-    <t>Revaluation</t>
-  </si>
-  <si>
-    <t>AccountingPrd</t>
-  </si>
-  <si>
-    <t>Description1</t>
-  </si>
-  <si>
-    <t>Description2</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>NaturalAccount</t>
-  </si>
-  <si>
-    <t>SavedSearch</t>
+    <t>AutomationTesting_333</t>
+  </si>
+  <si>
+    <t>AutomationTesting</t>
+  </si>
+  <si>
+    <t>GNB CoA</t>
+  </si>
+  <si>
+    <t>Corporate_Entreprise</t>
+  </si>
+  <si>
+    <t>220.31863.204021.10081.100.00000.000.0000.0000</t>
+  </si>
+  <si>
+    <t>220.31863.204021.10081.210.00000.000.0000.0000</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
+    <t>GNB Consol</t>
+  </si>
+  <si>
+    <t>2021-02</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>Intangibles - Additions</t>
+  </si>
+  <si>
+    <t>AutoCopy</t>
+  </si>
+  <si>
+    <t>CAD - Canadian Dollar</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
     <t>All Journals</t>
   </si>
   <si>
+    <t>Unique Field. Provide value with proper naming convention</t>
+  </si>
+  <si>
+    <t>Data Access Set in the system and Ledger should be same</t>
+  </si>
+  <si>
+    <t>This should be same as name</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -137,55 +168,7 @@
     <t>Process ran and resulted in a warning.</t>
   </si>
   <si>
-    <t>Process 1334168 was submitted.</t>
-  </si>
-  <si>
-    <t>LowWait</t>
-  </si>
-  <si>
-    <t>MediumWait</t>
-  </si>
-  <si>
-    <t>HighWait</t>
-  </si>
-  <si>
-    <t>HighestWait</t>
-  </si>
-  <si>
-    <t>LowExplicitWait</t>
-  </si>
-  <si>
-    <t>MediumExplicitWait</t>
-  </si>
-  <si>
-    <t>LongExplicitWait</t>
-  </si>
-  <si>
-    <t>HighestExplicitWait</t>
-  </si>
-  <si>
-    <t>GNB Consol</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>GNB CoA</t>
-  </si>
-  <si>
-    <t>Corporate_Entreprise</t>
-  </si>
-  <si>
-    <t>CAD - Canadian Dollar</t>
-  </si>
-  <si>
-    <t>AUTOTEST</t>
-  </si>
-  <si>
-    <t>220.31863.204021.10001.001.00000.000</t>
-  </si>
-  <si>
-    <t>220.31863.204021.10001.000.00000.000</t>
+    <t>Process 768901 was submitted.</t>
   </si>
 </sst>
 </file>
@@ -224,7 +207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,19 +250,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,206 +584,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="34.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.90625" customWidth="1"/>
+    <col min="1" max="2" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="50.26953125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.6328125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.90625" customWidth="1"/>
+    <col min="18" max="18" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="44.1796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="27" max="27" width="26.81640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="11.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="G2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="6">
+        <v>2</v>
+      </c>
+      <c r="S2" s="6">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T2" s="6">
         <v>10</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="U2" s="6">
+        <v>30</v>
+      </c>
+      <c r="V2" s="6">
         <v>15</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="W2" s="6">
         <v>30</v>
       </c>
-      <c r="E2" s="2">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="X2" s="6">
         <v>60</v>
       </c>
-      <c r="H2" s="2">
+      <c r="Y2" s="6">
         <v>120</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="2">
-        <v>204021</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="T5" s="5"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -811,18 +813,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
